--- a/lecture_24/test.xlsx
+++ b/lecture_24/test.xlsx
@@ -8,18 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet_1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello world.</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -326,6 +318,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
   <sheetData>
     <row r="1"/>
     <row r="2">
@@ -335,21 +337,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>